--- a/biology/Botanique/Forêt_climatique_du_Vatican/Forêt_climatique_du_Vatican.xlsx
+++ b/biology/Botanique/Forêt_climatique_du_Vatican/Forêt_climatique_du_Vatican.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_climatique_du_Vatican</t>
+          <t>Forêt_climatique_du_Vatican</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt climatique du Vatican se situe dans le Parc national de Bükk en Hongrie. Elle a été donnée à l’État de la Cité du Vatican par la société Planktos-Klimafa dans un but de compensation carbonique.
-La forêt est dimensionnée de manière à compenser les émissions de carbone générées par le Vatican en 2007[1]. Le Vatican accepte le don à l'occasion d'une cérémonie le 5 juillet 2007 ; celui-ci est signalé comme étant « purement symbolique » [1] et une façon d'encourager les catholiques à faire davantage pour préserver la planète[2]. Aucun arbre n'a été planté dans le cadre du projet et les compensations de carbone ne sont pas matérialisées[3].
-Ce point est confirmé par le père Ciro Benedettini, directeur adjoint du Bureau de presse du Saint-Siège, qui déclare : « Nous avons demandé à plusieurs reprises le respect de cet engagement et nous étudions à présent l'éventualité d'un recours en justice pour protéger notre nom et notre réputation ». La société responsable répond se trouver dans des difficultés financières[4].
+La forêt est dimensionnée de manière à compenser les émissions de carbone générées par le Vatican en 2007. Le Vatican accepte le don à l'occasion d'une cérémonie le 5 juillet 2007 ; celui-ci est signalé comme étant « purement symbolique »  et une façon d'encourager les catholiques à faire davantage pour préserver la planète. Aucun arbre n'a été planté dans le cadre du projet et les compensations de carbone ne sont pas matérialisées.
+Ce point est confirmé par le père Ciro Benedettini, directeur adjoint du Bureau de presse du Saint-Siège, qui déclare : « Nous avons demandé à plusieurs reprises le respect de cet engagement et nous étudions à présent l'éventualité d'un recours en justice pour protéger notre nom et notre réputation ». La société responsable répond se trouver dans des difficultés financières.
 </t>
         </is>
       </c>
